--- a/biology/Botanique/Tillandsia_araujei/Tillandsia_araujei.xlsx
+++ b/biology/Botanique/Tillandsia_araujei/Tillandsia_araujei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia araujei est une espèce de plantes à fleurs de la famille des Bromeliaceae. C'est une plante saxicole originaire des régions côtières du Brésil et du Paraguay.
 </t>
@@ -511,7 +523,9 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia araujei Mez in Mart., Fl. Bras. 3(3): 600, tab. 112, fig. II (1894)
 Diagnose originale
@@ -549,9 +563,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia araujei est une plante vivace herbacée rameuse, saxicole[1],[2], rupicole[1] et épiphyte[3],[2]. Les tiges sont couvertes de nombreuses feuilles aux entrenoeuds courts. L'inflorescence terminale a des bractées roses et des fleurs blanches.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia araujei est une plante vivace herbacée rameuse, saxicole rupicole et épiphyte,. Les tiges sont couvertes de nombreuses feuilles aux entrenoeuds courts. L'inflorescence terminale a des bractées roses et des fleurs blanches.
 </t>
         </is>
       </c>
@@ -582,10 +598,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre en Amérique du Sud, notamment au Brésil[3] dans l'État de Rio de Janeiro[1] et les zones côtières du centre-est[2], ainsi qu'au Paraguay[1].
-Habitat
-L'espèce se rencontre sur les rochers et dans les falaises maritimes[1], à une altitude proche de celle du niveau de la mer jusqu'à 900 m[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre en Amérique du Sud, notamment au Brésil dans l'État de Rio de Janeiro et les zones côtières du centre-est, ainsi qu'au Paraguay.
 </t>
         </is>
       </c>
@@ -611,12 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comportement en culture</t>
+          <t>Distribution et habitat</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia raujei est de culture facile[3],[2],[4].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre sur les rochers et dans les falaises maritimes, à une altitude proche de celle du niveau de la mer jusqu'à 900 m.
 </t>
         </is>
       </c>
@@ -642,15 +667,87 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comportement en culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia raujei est de culture facile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tillandsia_araujei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_araujei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxons infra-spécifiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Tillandsia araujei var. araujei
-(autonyme)
-Tillandsia araujei var. minima E.Pereira &amp; I.A.Penna
-Tillandsia araujei var. minima E.Pereira &amp; I.A.Penna, in Bradea 3(12): 90 (1980) qui se rencontre dans l'Rio de Janeiro au Brésil (Type: leg. I.A.Penna s.n., 1980-02-03 ; Holotypus HB). Diffère du type par sa plus petite taille et ses bractées de coloris plus vif[2].</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tillandsia araujei var. araujei</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(autonyme)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_araujei</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_araujei</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tillandsia araujei var. minima E.Pereira &amp; I.A.Penna</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tillandsia araujei var. minima E.Pereira &amp; I.A.Penna, in Bradea 3(12): 90 (1980) qui se rencontre dans l'Rio de Janeiro au Brésil (Type: leg. I.A.Penna s.n., 1980-02-03 ; Holotypus HB). Diffère du type par sa plus petite taille et ses bractées de coloris plus vif.</t>
         </is>
       </c>
     </row>
